--- a/model_best.xlsx
+++ b/model_best.xlsx
@@ -453,131 +453,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[[19, 34, 35, 47], [24, 59, 79, 81], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 42, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.747261146355182</v>
+        <v>8.882401200412485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1143214982688245</v>
+        <v>0.1125821697801223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[[19, 34, 35, 47], [24, 59, 81, 83], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 42, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.772162819456854</v>
+        <v>8.882401200412485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1139969720787646</v>
+        <v>0.1125821697801223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[[19, 34, 35, 47], [24, 59, 81, 83], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 42, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.772162819456854</v>
+        <v>8.882401200412485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1139969720787646</v>
+        <v>0.1125821697801223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[[19, 34, 35, 47], [24, 59, 81, 83], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 42, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.772162819456854</v>
+        <v>8.882401200412485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1139969720787646</v>
+        <v>0.1125821697801223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[[19, 34, 35, 47], [24, 59, 81, 83], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 42, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.772162819456854</v>
+        <v>8.882401200412485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1139969720787646</v>
+        <v>0.1125821697801223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[[19, 34, 35, 47], [24, 58, 81, 83], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 42, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.773686628980663</v>
+        <v>8.882401200412485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1139771731414325</v>
+        <v>0.1125821697801223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[[19, 35, 37, 47], [24, 58, 79, 81], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 44, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.780402744190896</v>
+        <v>8.883558344247415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1138899921944467</v>
+        <v>0.1125675051875529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[[21, 35, 37, 49], [24, 58, 79, 81], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 44, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.780402744190896</v>
+        <v>8.883558344247415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1138899921944467</v>
+        <v>0.1125675051875529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[[19, 35, 37, 47], [24, 58, 79, 81], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 44, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.780402744190896</v>
+        <v>8.883558344247415</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1138899921944467</v>
+        <v>0.1125675051875529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[[21, 35, 37, 49], [24, 58, 79, 81], [131, 272, 335, 353], [5, 7, 14, 14], [178, 192, 443, 563]]</t>
+          <t>[[25, 28, 35, 42], [24, 44, 79, 80], [132, 270, 334, 355], [5, 6, 13, 15], [192, 192, 340, 532]]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.780402744190896</v>
+        <v>8.883558344247415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1138899921944467</v>
+        <v>0.1125675051875529</v>
       </c>
     </row>
   </sheetData>
